--- a/output/proyecciones/proyeccion_pea_total.xlsx
+++ b/output/proyecciones/proyeccion_pea_total.xlsx
@@ -463,7 +463,7 @@
         <v>45658</v>
       </c>
       <c r="B9">
-        <v>1821417.224889268</v>
+        <v>1821425.861256134</v>
       </c>
       <c r="C9">
         <v>2823211.259403452</v>
@@ -474,7 +474,7 @@
         <v>47484</v>
       </c>
       <c r="B10">
-        <v>1860159.120325706</v>
+        <v>1860212.117059181</v>
       </c>
       <c r="C10">
         <v>2880741.715206258</v>
@@ -485,7 +485,7 @@
         <v>49310</v>
       </c>
       <c r="B11">
-        <v>1895527.811835533</v>
+        <v>1895688.046766983</v>
       </c>
       <c r="C11">
         <v>2935172.637573617</v>
@@ -496,7 +496,7 @@
         <v>51136</v>
       </c>
       <c r="B12">
-        <v>1916580.377460054</v>
+        <v>1916925.20873892</v>
       </c>
       <c r="C12">
         <v>2957957.760662484</v>
@@ -507,7 +507,7 @@
         <v>52963</v>
       </c>
       <c r="B13">
-        <v>1917336.300926232</v>
+        <v>1917946.270817918</v>
       </c>
       <c r="C13">
         <v>2969323.99688816</v>
@@ -518,7 +518,7 @@
         <v>54789</v>
       </c>
       <c r="B14">
-        <v>1907688.980264364</v>
+        <v>1908660.572850714</v>
       </c>
       <c r="C14">
         <v>2970729.105627517</v>
@@ -529,7 +529,7 @@
         <v>56615</v>
       </c>
       <c r="B15">
-        <v>1883881.161658735</v>
+        <v>1885280.134636559</v>
       </c>
       <c r="C15">
         <v>2965888.196227784</v>
@@ -540,7 +540,7 @@
         <v>58441</v>
       </c>
       <c r="B16">
-        <v>1843675.190070953</v>
+        <v>1845537.119791201</v>
       </c>
       <c r="C16">
         <v>2943195.036309491</v>
@@ -551,7 +551,7 @@
         <v>60268</v>
       </c>
       <c r="B17">
-        <v>1792080.644142075</v>
+        <v>1794449.081568098</v>
       </c>
       <c r="C17">
         <v>2906569.530230556</v>
@@ -562,7 +562,7 @@
         <v>62094</v>
       </c>
       <c r="B18">
-        <v>1736150.154571502</v>
+        <v>1739089.021255066</v>
       </c>
       <c r="C18">
         <v>2869406.991161157</v>
@@ -573,7 +573,7 @@
         <v>63920</v>
       </c>
       <c r="B19">
-        <v>1672620.347917387</v>
+        <v>1676151.514983577</v>
       </c>
       <c r="C19">
         <v>2821815.562568905</v>
@@ -584,7 +584,7 @@
         <v>65746</v>
       </c>
       <c r="B20">
-        <v>1588925.568259134</v>
+        <v>1592970.386680482</v>
       </c>
       <c r="C20">
         <v>2752403.918605025</v>
@@ -595,7 +595,7 @@
         <v>67573</v>
       </c>
       <c r="B21">
-        <v>1496505.033249189</v>
+        <v>1501051.380243554</v>
       </c>
       <c r="C21">
         <v>2675388.241779771</v>
@@ -606,7 +606,7 @@
         <v>69399</v>
       </c>
       <c r="B22">
-        <v>1402600.464182109</v>
+        <v>1407854.059279555</v>
       </c>
       <c r="C22">
         <v>2588458.941411551</v>
@@ -617,7 +617,7 @@
         <v>71225</v>
       </c>
       <c r="B23">
-        <v>1298149.860648601</v>
+        <v>1304176.832156197</v>
       </c>
       <c r="C23">
         <v>2499485.531169424</v>
@@ -628,7 +628,7 @@
         <v>73051</v>
       </c>
       <c r="B24">
-        <v>1187272.300099385</v>
+        <v>1194085.255215036</v>
       </c>
       <c r="C24">
         <v>2408720.378367608</v>

--- a/output/proyecciones/proyeccion_pea_total.xlsx
+++ b/output/proyecciones/proyeccion_pea_total.xlsx
@@ -386,7 +386,7 @@
         <v>32874</v>
       </c>
       <c r="B2">
-        <v>1386129.35795</v>
+        <v>1386129</v>
       </c>
       <c r="C2">
         <v>2300906</v>
@@ -397,7 +397,7 @@
         <v>34700</v>
       </c>
       <c r="B3">
-        <v>1502369.07395</v>
+        <v>1502369</v>
       </c>
       <c r="C3">
         <v>2417834</v>
@@ -408,7 +408,7 @@
         <v>36526</v>
       </c>
       <c r="B4">
-        <v>1559130.51311</v>
+        <v>1559131</v>
       </c>
       <c r="C4">
         <v>2505096</v>
@@ -419,7 +419,7 @@
         <v>38353</v>
       </c>
       <c r="B5">
-        <v>1583335.389</v>
+        <v>1583335</v>
       </c>
       <c r="C5">
         <v>2534702</v>
@@ -430,7 +430,7 @@
         <v>40179</v>
       </c>
       <c r="B6">
-        <v>1711302.27553</v>
+        <v>1711302</v>
       </c>
       <c r="C6">
         <v>2613434</v>
@@ -441,7 +441,7 @@
         <v>42005</v>
       </c>
       <c r="B7">
-        <v>1749236.04605</v>
+        <v>1749236</v>
       </c>
       <c r="C7">
         <v>2692584</v>
@@ -452,7 +452,7 @@
         <v>43831</v>
       </c>
       <c r="B8">
-        <v>1774833.68725</v>
+        <v>1774834</v>
       </c>
       <c r="C8">
         <v>2767343</v>
@@ -463,10 +463,10 @@
         <v>45658</v>
       </c>
       <c r="B9">
-        <v>1821425.861256134</v>
+        <v>1821426</v>
       </c>
       <c r="C9">
-        <v>2823211.259403452</v>
+        <v>2823211</v>
       </c>
     </row>
     <row r="10">
@@ -474,10 +474,10 @@
         <v>47484</v>
       </c>
       <c r="B10">
-        <v>1860212.117059181</v>
+        <v>1860212</v>
       </c>
       <c r="C10">
-        <v>2880741.715206258</v>
+        <v>2880742</v>
       </c>
     </row>
     <row r="11">
@@ -485,10 +485,10 @@
         <v>49310</v>
       </c>
       <c r="B11">
-        <v>1895688.046766983</v>
+        <v>1895688</v>
       </c>
       <c r="C11">
-        <v>2935172.637573617</v>
+        <v>2935173</v>
       </c>
     </row>
     <row r="12">
@@ -496,10 +496,10 @@
         <v>51136</v>
       </c>
       <c r="B12">
-        <v>1916925.20873892</v>
+        <v>1916925</v>
       </c>
       <c r="C12">
-        <v>2957957.760662484</v>
+        <v>2957958</v>
       </c>
     </row>
     <row r="13">
@@ -507,10 +507,10 @@
         <v>52963</v>
       </c>
       <c r="B13">
-        <v>1917946.270817918</v>
+        <v>1917946</v>
       </c>
       <c r="C13">
-        <v>2969323.99688816</v>
+        <v>2969324</v>
       </c>
     </row>
     <row r="14">
@@ -518,10 +518,10 @@
         <v>54789</v>
       </c>
       <c r="B14">
-        <v>1908660.572850714</v>
+        <v>1908661</v>
       </c>
       <c r="C14">
-        <v>2970729.105627517</v>
+        <v>2970729</v>
       </c>
     </row>
     <row r="15">
@@ -529,10 +529,10 @@
         <v>56615</v>
       </c>
       <c r="B15">
-        <v>1885280.134636559</v>
+        <v>1885280</v>
       </c>
       <c r="C15">
-        <v>2965888.196227784</v>
+        <v>2965888</v>
       </c>
     </row>
     <row r="16">
@@ -540,10 +540,10 @@
         <v>58441</v>
       </c>
       <c r="B16">
-        <v>1845537.119791201</v>
+        <v>1845537</v>
       </c>
       <c r="C16">
-        <v>2943195.036309491</v>
+        <v>2943195</v>
       </c>
     </row>
     <row r="17">
@@ -551,10 +551,10 @@
         <v>60268</v>
       </c>
       <c r="B17">
-        <v>1794449.081568098</v>
+        <v>1794449</v>
       </c>
       <c r="C17">
-        <v>2906569.530230556</v>
+        <v>2906570</v>
       </c>
     </row>
     <row r="18">
@@ -562,10 +562,10 @@
         <v>62094</v>
       </c>
       <c r="B18">
-        <v>1739089.021255066</v>
+        <v>1739089</v>
       </c>
       <c r="C18">
-        <v>2869406.991161157</v>
+        <v>2869407</v>
       </c>
     </row>
     <row r="19">
@@ -573,10 +573,10 @@
         <v>63920</v>
       </c>
       <c r="B19">
-        <v>1676151.514983577</v>
+        <v>1676152</v>
       </c>
       <c r="C19">
-        <v>2821815.562568905</v>
+        <v>2821816</v>
       </c>
     </row>
     <row r="20">
@@ -584,10 +584,10 @@
         <v>65746</v>
       </c>
       <c r="B20">
-        <v>1592970.386680482</v>
+        <v>1592970</v>
       </c>
       <c r="C20">
-        <v>2752403.918605025</v>
+        <v>2752404</v>
       </c>
     </row>
     <row r="21">
@@ -595,10 +595,10 @@
         <v>67573</v>
       </c>
       <c r="B21">
-        <v>1501051.380243554</v>
+        <v>1501051</v>
       </c>
       <c r="C21">
-        <v>2675388.241779771</v>
+        <v>2675388</v>
       </c>
     </row>
     <row r="22">
@@ -606,10 +606,10 @@
         <v>69399</v>
       </c>
       <c r="B22">
-        <v>1407854.059279555</v>
+        <v>1407854</v>
       </c>
       <c r="C22">
-        <v>2588458.941411551</v>
+        <v>2588459</v>
       </c>
     </row>
     <row r="23">
@@ -617,10 +617,10 @@
         <v>71225</v>
       </c>
       <c r="B23">
-        <v>1304176.832156197</v>
+        <v>1304177</v>
       </c>
       <c r="C23">
-        <v>2499485.531169424</v>
+        <v>2499486</v>
       </c>
     </row>
     <row r="24">
@@ -628,10 +628,10 @@
         <v>73051</v>
       </c>
       <c r="B24">
-        <v>1194085.255215036</v>
+        <v>1194085</v>
       </c>
       <c r="C24">
-        <v>2408720.378367608</v>
+        <v>2408720</v>
       </c>
     </row>
   </sheetData>

--- a/output/proyecciones/proyeccion_pea_total.xlsx
+++ b/output/proyecciones/proyeccion_pea_total.xlsx
@@ -463,7 +463,7 @@
         <v>45658</v>
       </c>
       <c r="B9">
-        <v>1821426</v>
+        <v>1806843</v>
       </c>
       <c r="C9">
         <v>2823211</v>
@@ -474,7 +474,7 @@
         <v>47484</v>
       </c>
       <c r="B10">
-        <v>1860212</v>
+        <v>1829452</v>
       </c>
       <c r="C10">
         <v>2880742</v>
@@ -485,7 +485,7 @@
         <v>49310</v>
       </c>
       <c r="B11">
-        <v>1895688</v>
+        <v>1847731</v>
       </c>
       <c r="C11">
         <v>2935173</v>
@@ -496,7 +496,7 @@
         <v>51136</v>
       </c>
       <c r="B12">
-        <v>1916925</v>
+        <v>1850474</v>
       </c>
       <c r="C12">
         <v>2957958</v>
@@ -507,7 +507,7 @@
         <v>52963</v>
       </c>
       <c r="B13">
-        <v>1917946</v>
+        <v>1834113</v>
       </c>
       <c r="C13">
         <v>2969324</v>
@@ -518,7 +518,7 @@
         <v>54789</v>
       </c>
       <c r="B14">
-        <v>1908661</v>
+        <v>1810185</v>
       </c>
       <c r="C14">
         <v>2970729</v>
@@ -529,7 +529,7 @@
         <v>56615</v>
       </c>
       <c r="B15">
-        <v>1885280</v>
+        <v>1775249</v>
       </c>
       <c r="C15">
         <v>2965888</v>
@@ -540,7 +540,7 @@
         <v>58441</v>
       </c>
       <c r="B16">
-        <v>1845537</v>
+        <v>1728792</v>
       </c>
       <c r="C16">
         <v>2943195</v>
@@ -551,7 +551,7 @@
         <v>60268</v>
       </c>
       <c r="B17">
-        <v>1794449</v>
+        <v>1678099</v>
       </c>
       <c r="C17">
         <v>2906570</v>
@@ -562,7 +562,7 @@
         <v>62094</v>
       </c>
       <c r="B18">
-        <v>1739089</v>
+        <v>1629919</v>
       </c>
       <c r="C18">
         <v>2869407</v>
@@ -573,7 +573,7 @@
         <v>63920</v>
       </c>
       <c r="B19">
-        <v>1676152</v>
+        <v>1581330</v>
       </c>
       <c r="C19">
         <v>2821816</v>
@@ -584,7 +584,7 @@
         <v>65746</v>
       </c>
       <c r="B20">
-        <v>1592970</v>
+        <v>1522646</v>
       </c>
       <c r="C20">
         <v>2752404</v>
@@ -595,7 +595,7 @@
         <v>67573</v>
       </c>
       <c r="B21">
-        <v>1501051</v>
+        <v>1462988</v>
       </c>
       <c r="C21">
         <v>2675388</v>
@@ -606,7 +606,7 @@
         <v>69399</v>
       </c>
       <c r="B22">
-        <v>1407854</v>
+        <v>1410596</v>
       </c>
       <c r="C22">
         <v>2588459</v>
@@ -617,7 +617,7 @@
         <v>71225</v>
       </c>
       <c r="B23">
-        <v>1304177</v>
+        <v>1355779</v>
       </c>
       <c r="C23">
         <v>2499486</v>
@@ -628,7 +628,7 @@
         <v>73051</v>
       </c>
       <c r="B24">
-        <v>1194085</v>
+        <v>1301961</v>
       </c>
       <c r="C24">
         <v>2408720</v>
